--- a/premise/data/additional_inventories/lci-electrolyzer-SOEC-eol.xlsx
+++ b/premise/data/additional_inventories/lci-electrolyzer-SOEC-eol.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="861" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17131B55-0458-4D6F-8670-D3558AD85C2D}"/>
+  <xr:revisionPtr revIDLastSave="891" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE4BEB4-7547-4BA0-A374-FA561D9793F0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="Electrolyzer_SOEC_EOL" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="btbl4fnb" localSheetId="0">Electrolyzer_SOEC_EOL!$H$95</definedName>
+    <definedName name="btbl4fnb" localSheetId="0">Electrolyzer_SOEC_EOL!$H$98</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="100">
   <si>
     <t>Activity</t>
   </si>
@@ -288,9 +288,6 @@
     <t>electrolyzer_SOEC_EoL</t>
   </si>
   <si>
-    <t>treatment of used electrolyzer stack, 1MWe, SOEC</t>
-  </si>
-  <si>
     <t>LCI data from Figure 3 according to Stropnik et al. (2019)</t>
   </si>
   <si>
@@ -306,7 +303,37 @@
     <t>1.36g lanthanum oxide and 1g cobalth oxide are recovered from 1.36g lanthanum and 1.15g cobalt; for 13.122kg La, we can recover the same amount --&gt; 13.122kg/1.36g lanthanum = 9648.5 unit. For 5.9kg cobalt we can recover 5.133kg. 5.9kg/1.15g cobalt = 5130.4 unit. not the same scale, take the small amount to recover --&gt; 5130.4unit</t>
   </si>
   <si>
-    <t>We have 2.02g YSZ with 0.16g Yttrium and 1.86 zirconium recovered --&gt; 2.24g YSZ with 0.18g Y and 2.06g Zr; For 83.812kg Y, we can recover 75.43kg --&gt; 83.812g/0.18g = 465622.2 unit. For 366.6kg Zr, we can recover 329.94kg --&gt; 366.6kg/2.06g = 177961.1 unit. We have 1g  Nickel recovered from 1.11g Nickel --&gt; 314.86kg/1.11g = 283657 unit. not the same scale, take the small amount to recover ---&gt; 177961.1 unit</t>
+    <t>treatment of used electrolyzer Stack, 1MWe, SOEC</t>
+  </si>
+  <si>
+    <t>waste steel</t>
+  </si>
+  <si>
+    <t>market for waste steel</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>taken from "treatment of electrolyzer stack, 1MWe, SOEC"</t>
+  </si>
+  <si>
+    <t>We have 2.02g YSZ with 0.16g Yttrium and 1.86 zirconium recovered --&gt; 2.24g YSZ with 0.18g Y and 2.06g Zr; For 83.812kg Y, we could recover 75.43kg --&gt; 83.812g/0.18g = 465622.2 unit. For 366.6kg Zr, we could recover 329.94kg --&gt; 366.6kg/2.06g = 177961.1 unit. We have 1g  Nickel recovered from 1.11g Nickel --&gt; 314.86kg/1.11g = 283657 unit. not the same scale, take the small amount to recover ---&gt; 177961.1 unit</t>
+  </si>
+  <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>market for waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>silicon product</t>
+  </si>
+  <si>
+    <t>Other metals are incinerated (samarium, barium, cerium, manganese, strontium, aluinium oxide, boric oxide, praseodymium)</t>
   </si>
 </sst>
 </file>
@@ -707,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DB8AB5-DB07-4C96-93E1-DBFD85C05BFD}">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="42" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2196,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2219,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2287,7 +2314,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2310,7 +2337,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2445,7 +2472,7 @@
     <row r="73" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="str">
         <f>B63</f>
-        <v>treatment of used electrolyzer stack, 1MWe, SOEC</v>
+        <v>treatment of used electrolyzer Stack, 1MWe, SOEC</v>
       </c>
       <c r="B73" s="5">
         <v>-1</v>
@@ -2467,7 +2494,7 @@
         <v>used electrolyzer stack, 1MWe, SOEC</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
@@ -2479,7 +2506,7 @@
     </row>
     <row r="74" spans="1:17" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="str">
-        <f>A87</f>
+        <f>A90</f>
         <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
       </c>
       <c r="B74" s="18">
@@ -2496,11 +2523,11 @@
         <v>15</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f>B82</f>
+        <f>B85</f>
         <v>waste LSC cathode from used solide oxide cell</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
@@ -2533,7 +2560,7 @@
         <v>51</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
@@ -2545,80 +2572,112 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
     </row>
+    <row r="76" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="18">
+        <f>-26928/3</f>
+        <v>-8976</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="2"/>
+    </row>
     <row r="77" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-      <c r="P77" s="19"/>
+      <c r="A77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="18">
+        <v>-6.4</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
     </row>
     <row r="78" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
-      <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
-      <c r="M78" s="11"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
+      <c r="A78" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="18">
+        <v>-300.10000000000002</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
     </row>
-    <row r="79" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
-      <c r="M79" s="11"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="1"/>
-    </row>
-    <row r="80" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B80" s="11">
-        <v>-1</v>
+    <row r="80" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>68</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -2633,15 +2692,15 @@
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-    </row>
-    <row r="81" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P80" s="19"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -2656,15 +2715,15 @@
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
-      <c r="P81"/>
-      <c r="Q81"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="2"/>
     </row>
     <row r="82" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -2679,15 +2738,14 @@
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
-      <c r="P82"/>
-      <c r="Q82"/>
+      <c r="P82" s="1"/>
     </row>
     <row r="83" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B83" s="11">
+        <v>-1</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -2707,10 +2765,10 @@
     </row>
     <row r="84" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -2729,10 +2787,12 @@
       <c r="Q84"/>
     </row>
     <row r="85" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B85" s="11"/>
+      <c r="A85" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>66</v>
+      </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
       <c r="E85" s="11"/>
@@ -2750,80 +2810,41 @@
       <c r="Q85"/>
     </row>
     <row r="86" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D86" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="16" t="s">
+      <c r="A86" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G86" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L86" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M86" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N86" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O86" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="B86" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
       <c r="P86"/>
       <c r="Q86"/>
     </row>
-    <row r="87" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A87" s="12" t="str">
-        <f>B77</f>
-        <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
-      </c>
-      <c r="B87" s="11">
-        <v>-1</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D87" s="11" t="str">
-        <f>B84</f>
-        <v>unit</v>
-      </c>
+    <row r="87" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" s="11" t="str">
-        <f>B82</f>
-        <v>waste LSC cathode from used solide oxide cell</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
       <c r="I87" s="11"/>
       <c r="J87" s="11"/>
       <c r="K87" s="11"/>
@@ -2835,28 +2856,16 @@
       <c r="Q87"/>
     </row>
     <row r="88" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="15">
-        <v>5.3</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="A88" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="11"/>
-      <c r="F88" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>65</v>
-      </c>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
       <c r="I88" s="11"/>
       <c r="J88" s="11"/>
       <c r="K88" s="11"/>
@@ -2864,64 +2873,83 @@
       <c r="M88" s="11"/>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
-      <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="13">
-        <f>1.11*9.53/1000</f>
-        <v>1.0578300000000001E-2</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="P88"/>
+      <c r="Q88"/>
+    </row>
+    <row r="89" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K89" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M89" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N89" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O89" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P89"/>
+      <c r="Q89"/>
+    </row>
+    <row r="90" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="str">
+        <f>B80</f>
+        <v>treatment of used solide oxide cell, cathode recovery, nitric acid route</v>
+      </c>
+      <c r="B90" s="11">
+        <v>-1</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I89" s="11"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-      <c r="P89" s="1"/>
-    </row>
-    <row r="90" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="13">
-        <f>43.4*1.39</f>
-        <v>60.325999999999993</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>9</v>
+      <c r="D90" s="11" t="str">
+        <f>B87</f>
+        <v>unit</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="G90" s="11" t="str">
+        <f>B85</f>
+        <v>waste LSC cathode from used solide oxide cell</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I90" s="11"/>
       <c r="J90" s="11"/>
@@ -2930,18 +2958,18 @@
       <c r="M90" s="11"/>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
-      <c r="P90" s="1"/>
+      <c r="P90"/>
+      <c r="Q90"/>
     </row>
     <row r="91" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="13">
-        <f>59.38*1.43</f>
-        <v>84.913399999999996</v>
+        <v>31</v>
+      </c>
+      <c r="B91" s="15">
+        <v>5.3</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>9</v>
@@ -2950,11 +2978,11 @@
       <c r="F91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G91" s="12" t="s">
-        <v>28</v>
+      <c r="G91" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I91" s="11"/>
       <c r="J91" s="11"/>
@@ -2965,16 +2993,16 @@
       <c r="O91" s="11"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B92" s="13">
-        <f>6.88/1000</f>
-        <v>6.8799999999999998E-3</v>
+        <f>1.11*9.53/1000</f>
+        <v>1.0578300000000001E-2</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D92" s="11" t="s">
         <v>9</v>
@@ -2983,11 +3011,11 @@
       <c r="F92" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="12" t="s">
-        <v>60</v>
+      <c r="G92" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I92" s="11"/>
       <c r="J92" s="11"/>
@@ -2997,30 +3025,30 @@
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="1"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:17" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B93" s="13">
-        <v>10.452999999999999</v>
+        <f>43.4*1.39</f>
+        <v>60.325999999999993</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I93" s="11"/>
       <c r="J93" s="11"/>
@@ -3030,18 +3058,17 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="1"/>
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>82</v>
+    </row>
+    <row r="94" spans="1:17" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B94" s="13">
-        <f>-55.15/1000</f>
-        <v>-5.5149999999999998E-2</v>
+        <f>59.38*1.43</f>
+        <v>84.913399999999996</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>9</v>
@@ -3051,10 +3078,10 @@
         <v>15</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
@@ -3064,31 +3091,30 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="1"/>
-      <c r="Q94" s="2"/>
     </row>
     <row r="95" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A95" s="14" t="s">
-        <v>32</v>
+      <c r="A95" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B95" s="13">
-        <f>-5.3/1000</f>
-        <v>-5.3E-3</v>
+        <f>6.88/1000</f>
+        <v>6.8799999999999998E-3</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
@@ -3100,28 +3126,28 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="2"/>
     </row>
-    <row r="96" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A96" s="14" t="s">
-        <v>41</v>
+    <row r="96" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B96" s="13">
-        <v>-0.11912</v>
+        <v>10.452999999999999</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E96" s="11"/>
       <c r="F96" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
@@ -3133,19 +3159,64 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B98" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+    <row r="97" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+      <c r="A97" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B97" s="13">
+        <f>-55.15/1000</f>
+        <v>-5.5149999999999998E-2</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+      <c r="A98" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="13">
+        <f>-5.3/1000</f>
+        <v>-5.3E-3</v>
+      </c>
+      <c r="C98" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
+      <c r="F98" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
@@ -3153,21 +3224,32 @@
       <c r="M98" s="11"/>
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
-      <c r="P98" s="19"/>
-    </row>
-    <row r="99" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+      <c r="A99" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="13">
+        <v>-0.11912</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
+      <c r="F99" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
@@ -3175,34 +3257,15 @@
       <c r="M99" s="11"/>
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
-    </row>
-    <row r="100" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
-    </row>
-    <row r="101" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B101" s="11">
-        <v>-1</v>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="101" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -3217,13 +3280,14 @@
       <c r="M101" s="11"/>
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
-    </row>
-    <row r="102" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P101" s="19"/>
+    </row>
+    <row r="102" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="11"/>
@@ -3239,12 +3303,12 @@
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
     </row>
-    <row r="103" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="11"/>
@@ -3260,12 +3324,12 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
     </row>
-    <row r="104" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B104" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B104" s="11">
+        <v>-1</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -3281,12 +3345,12 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="11"/>
@@ -3302,11 +3366,13 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B106" s="11"/>
+    <row r="106" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>51</v>
+      </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
@@ -3321,79 +3387,40 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="16" t="s">
+    <row r="107" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
+    </row>
+    <row r="108" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H107" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="I107" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="K107" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="L107" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M107" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N107" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O107" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="31" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="str">
-        <f>B98</f>
-        <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
-      </c>
-      <c r="B108" s="11">
-        <v>-1</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="11" t="str">
-        <f>B105</f>
-        <v>unit</v>
-      </c>
+      <c r="B108" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" s="11" t="str">
-        <f>B103</f>
-        <v>waste electrode from used solid oxide cell</v>
-      </c>
-      <c r="H108" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
@@ -3402,29 +3429,17 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="15">
-        <v>1.56</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>9</v>
-      </c>
+    <row r="109" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="11"/>
-      <c r="F109" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H109" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
@@ -3433,58 +3448,79 @@
       <c r="N109" s="11"/>
       <c r="O109" s="11"/>
     </row>
-    <row r="110" spans="1:16" ht="31" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="13">
-        <f>48.96/1000</f>
-        <v>4.8960000000000004E-2</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="11"/>
-      <c r="L110" s="11"/>
-      <c r="M110" s="11"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
-    </row>
-    <row r="111" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="13">
-        <f>9.61/1000</f>
-        <v>9.6099999999999988E-3</v>
+    <row r="110" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K110" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M110" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N110" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O110" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="str">
+        <f>B101</f>
+        <v>treatment of used solide oxide cell, anode recovery,  hydrothermal treatment</v>
+      </c>
+      <c r="B111" s="11">
+        <v>-1</v>
       </c>
       <c r="C111" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="11" t="s">
-        <v>9</v>
+      <c r="D111" s="11" t="str">
+        <f>B108</f>
+        <v>unit</v>
       </c>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G111" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H111" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="G111" s="11" t="str">
+        <f>B106</f>
+        <v>waste electrode from used solid oxide cell</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
@@ -3493,28 +3529,28 @@
       <c r="N111" s="11"/>
       <c r="O111" s="11"/>
     </row>
-    <row r="112" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B112" s="13">
-        <v>6.36</v>
+        <v>31</v>
+      </c>
+      <c r="B112" s="15">
+        <v>1.56</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E112" s="11"/>
       <c r="F112" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="12" t="s">
-        <v>38</v>
+      <c r="G112" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
@@ -3525,15 +3561,15 @@
       <c r="O112" s="11"/>
     </row>
     <row r="113" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A113" s="14" t="s">
-        <v>82</v>
+      <c r="A113" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="B113" s="13">
-        <f>-2.04/1000</f>
-        <v>-2.0400000000000001E-3</v>
+        <f>48.96/1000</f>
+        <v>4.8960000000000004E-2</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>9</v>
@@ -3543,11 +3579,9 @@
         <v>15</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H113" s="11" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
@@ -3556,30 +3590,28 @@
       <c r="N113" s="11"/>
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A114" s="14" t="s">
-        <v>32</v>
+    <row r="114" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B114" s="13">
-        <f>-1.57/1000</f>
-        <v>-1.57E-3</v>
+        <f>9.61/1000</f>
+        <v>9.6099999999999988E-3</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E114" s="11"/>
       <c r="F114" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H114" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H114" s="11"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
@@ -3588,28 +3620,28 @@
       <c r="N114" s="11"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="1:15" ht="31" x14ac:dyDescent="0.35">
-      <c r="A115" s="14" t="s">
-        <v>41</v>
+    <row r="115" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="B115" s="13">
-        <v>-0.5857</v>
+        <v>6.36</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E115" s="11"/>
       <c r="F115" s="11" t="s">
         <v>15</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
@@ -3619,6 +3651,101 @@
       <c r="N115" s="11"/>
       <c r="O115" s="11"/>
     </row>
+    <row r="116" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A116" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B116" s="13">
+        <f>-2.04/1000</f>
+        <v>-2.0400000000000001E-3</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H116" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+    </row>
+    <row r="117" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A117" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="13">
+        <f>-1.57/1000</f>
+        <v>-1.57E-3</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="11"/>
+      <c r="O117" s="11"/>
+    </row>
+    <row r="118" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+      <c r="A118" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" s="13">
+        <v>-0.5857</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
